--- a/Day-4/Day-4.xlsx
+++ b/Day-4/Day-4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senesbasbug/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/senesbasbug/Desktop/Github/GTU_internship_notebook/Day-4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0119C0-1FD6-1F40-86A0-FED9D36FB773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFBC3BAE-1A3B-884D-B146-AE247E401B17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{DA9D9330-3773-334C-88E7-2DDDEF7ED4F3}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20460" xr2:uid="{DA9D9330-3773-334C-88E7-2DDDEF7ED4F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
   <si>
     <t>GEO Accesion</t>
   </si>
@@ -69,15 +69,6 @@
     <t>NaN</t>
   </si>
   <si>
-    <t>GSE169498</t>
-  </si>
-  <si>
-    <t>Agilent-078298 human ceRNA array V1.0 4X180K [Probe Name Version]</t>
-  </si>
-  <si>
-    <t>Screening and Identification of Key Microenvironment-Related Genes in Non-Functioning Pituitary Adenoma</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
@@ -87,9 +78,6 @@
     <t>USA</t>
   </si>
   <si>
-    <t>https://www.ncbi.nlm.nih.gov/pubmed/33986766</t>
-  </si>
-  <si>
     <t>GSE153883</t>
   </si>
   <si>
@@ -204,15 +192,6 @@
     <t>Agilent-074809 SurePrint G3 Mouse GE v2 8x60K Microarray [Probe Name version]</t>
   </si>
   <si>
-    <t>GSE140604</t>
-  </si>
-  <si>
-    <t>miR-34a is upregulated in AIP mutated pituitary adenomas and induces octreotide-resistant cell proliferation and growth hormone secretion</t>
-  </si>
-  <si>
-    <t>[miRNA-1] Affymetrix Multispecies miRNA-1 Array</t>
-  </si>
-  <si>
     <t>GSE126025</t>
   </si>
   <si>
@@ -226,13 +205,16 @@
   </si>
   <si>
     <t>Ependymoma subpopulation lineages underlie clinical classification and outcome (microarray data set)</t>
+  </si>
+  <si>
+    <t>Analyze with GEO2R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -306,15 +288,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="162"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -354,7 +327,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Köprü" xfId="1" builtinId="8"/>
@@ -670,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{343A8F6A-73B8-914D-ABEC-11DFAA721F85}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="31" x14ac:dyDescent="0.35"/>
@@ -685,8 +658,8 @@
     <col min="5" max="5" width="21.83203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="24" style="1" customWidth="1"/>
     <col min="7" max="7" width="53.83203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="32.33203125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="35.5" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
@@ -706,12 +679,14 @@
         <v>4</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
@@ -730,348 +705,340 @@
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E3" s="1">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>17</v>
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>19</v>
+      <c r="D4" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="E4" s="1">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>10</v>
+      <c r="G4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>22</v>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="E5" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="1">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>10</v>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>7</v>
+      <c r="B7" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E7" s="1">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>35</v>
+      <c r="D8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="E8" s="1">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>38</v>
+        <v>28</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>41</v>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1">
+        <v>27</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="1">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>10</v>
+      <c r="H9" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>42</v>
+      <c r="D10" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="E10" s="1">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>44</v>
       </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="E11" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>48</v>
+        <v>12</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>52</v>
+      <c r="B12" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="1">
+        <v>95</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>10</v>
+      <c r="H13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>57</v>
+      <c r="D14" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="E14" s="1">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="1">
-        <v>95</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="35" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1">
-        <v>69</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17"/>
-      <c r="D17"/>
+        <v>13</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15"/>
+      <c r="D15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" xr:uid="{9722E940-4A1C-9340-BEF1-E63D79857F3A}"/>
-    <hyperlink ref="G5" r:id="rId2" xr:uid="{EF9C279A-8394-A14A-844E-BD8CD9369EE3}"/>
-    <hyperlink ref="G7" r:id="rId3" xr:uid="{AC4A1D4C-FA1A-A042-A28F-A46CD9935947}"/>
-    <hyperlink ref="G8" r:id="rId4" xr:uid="{E9CB9207-67E8-004A-B7BE-BB58854A16A1}"/>
-    <hyperlink ref="G10" r:id="rId5" xr:uid="{26C2300B-BD3D-3F43-ADB6-9F9976F999B8}"/>
-    <hyperlink ref="G11" r:id="rId6" xr:uid="{F0F4CF6E-2D71-9B4E-A111-77C9465E7D34}"/>
-    <hyperlink ref="G15" r:id="rId7" xr:uid="{9CB5FD62-AEF3-044C-A972-00D5B26846FD}"/>
-    <hyperlink ref="G16" r:id="rId8" xr:uid="{F77DD04B-F4DA-CF47-A4B1-1FFDB0F60B61}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{EF9C279A-8394-A14A-844E-BD8CD9369EE3}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{AC4A1D4C-FA1A-A042-A28F-A46CD9935947}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{E9CB9207-67E8-004A-B7BE-BB58854A16A1}"/>
+    <hyperlink ref="G9" r:id="rId4" xr:uid="{26C2300B-BD3D-3F43-ADB6-9F9976F999B8}"/>
+    <hyperlink ref="G10" r:id="rId5" xr:uid="{F0F4CF6E-2D71-9B4E-A111-77C9465E7D34}"/>
+    <hyperlink ref="G13" r:id="rId6" xr:uid="{9CB5FD62-AEF3-044C-A972-00D5B26846FD}"/>
+    <hyperlink ref="G14" r:id="rId7" xr:uid="{F77DD04B-F4DA-CF47-A4B1-1FFDB0F60B61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
